--- a/ExcelTableToMarkDownSample.xlsx
+++ b/ExcelTableToMarkDownSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A447B5C9-6EA6-4DDB-B57C-1153A6591CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC650DBF-F277-4145-B140-8B8616C2DA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
@@ -34,51 +34,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>Descripción</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t xml:space="preserve"> ---</t>
-  </si>
-  <si>
-    <t>Directorio</t>
-  </si>
-  <si>
-    <t>/Data</t>
-  </si>
-  <si>
-    <t>/Graph</t>
-  </si>
-  <si>
-    <t>/Old</t>
-  </si>
-  <si>
-    <t>/PDF</t>
-  </si>
-  <si>
-    <t>Directorio de descarga del archivo CNE_IDEAM.xls con registro de versiones.</t>
-  </si>
-  <si>
-    <t>Directorio con las versiones antiguas del script.</t>
-  </si>
-  <si>
-    <t>Directorio de impresión de la ventana de ejecución del scripts. Directamente no se realiza la escritura en un archivo .log de resultados por lo que su impresión se realiza de forma manual. En este directorio pueden existir versiones para clasificación de pisos térmicos con rangos convencionales o con los rangos definidos por Francisco José de Caldas en el año 1802.</t>
-  </si>
-  <si>
-    <t>/PivotTable</t>
-  </si>
-  <si>
-    <t>Directorio para volcado de las tablas dinámicas producidas por el script en formato de valores separados por comas [CSV](https://en.wikipedia.org/wiki/Comma-separated_values).  Para cada ejecución se crea un nuevo grupo de archivos .csv con registro de versiones.</t>
-  </si>
-  <si>
-    <t>Directorio para volcado de gráficas en formato [PNG](https://en.wikipedia.org/wiki/Portable_Network_Graphics) (Portable Network Graphic) .png. Para cada ejecución se crea un nuevo grupo de imágenes con registro de versiones.</t>
   </si>
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
   <si>
-    <t>Text to copy</t>
+    <t>Texto para dos columnas</t>
+  </si>
+  <si>
+    <t>Texto para tres columnas</t>
+  </si>
+  <si>
+    <t>Cálido</t>
+  </si>
+  <si>
+    <t>Valor de corte</t>
+  </si>
+  <si>
+    <t>Etiqueta</t>
+  </si>
+  <si>
+    <t>Cálido, 24°C+, &lt;= 1000 meters</t>
   </si>
 </sst>
 </file>
@@ -435,57 +414,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2E19A4-40DE-42A8-B3E2-A2516218588C}">
-  <dimension ref="B2:E24"/>
+  <dimension ref="B2:G103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="75.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="76" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="76" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Directorio | Descripción |</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>| Valor de corte | Etiqueta |</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
+        <v>| Valor de corte | Etiqueta |  |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>_xlfn.CONCAT("| ",B4," | ",C4," |")</f>
         <v>|  --- |  --- |</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="str">
+        <f t="shared" ref="G4:G24" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," |")</f>
+        <v>|  --- |  --- |  |</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -493,194 +486,1048 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| /Data | Directorio de descarga del archivo CNE_IDEAM.xls con registro de versiones. |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>| Cálido | Cálido, 24°C+, &lt;= 1000 meters |</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>| Cálido | Cálido, 24°C+, &lt;= 1000 meters |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="str">
-        <f t="shared" ref="E6:E24" si="0">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| /Graph | Directorio para volcado de gráficas en formato [PNG](https://en.wikipedia.org/wiki/Portable_Network_Graphics) (Portable Network Graphic) .png. Para cada ejecución se crea un nuevo grupo de imágenes con registro de versiones. |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
+        <f t="shared" ref="E6:E24" si="1">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>| /Old | Directorio con las versiones antiguas del script. |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="57" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>| /PDF | Directorio de impresión de la ventana de ejecución del scripts. Directamente no se realiza la escritura en un archivo .log de resultados por lo que su impresión se realiza de forma manual. En este directorio pueden existir versiones para clasificación de pisos térmicos con rangos convencionales o con los rangos definidos por Francisco José de Caldas en el año 1802. |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>| /PivotTable | Directorio para volcado de las tablas dinámicas producidas por el script en formato de valores separados por comas [CSV](https://en.wikipedia.org/wiki/Comma-separated_values).  Para cada ejecución se crea un nuevo grupo de archivos .csv con registro de versiones. |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |</v>
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="str">
+        <f t="shared" ref="E25:E88" si="2">_xlfn.CONCAT("| ",B25," | ",C25," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f t="shared" ref="G25:G88" si="3">_xlfn.CONCAT("| ",B25," | ",C25," | ",D25," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G37" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G46" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G48" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G49" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G51" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G52" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G53" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G54" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G55" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G56" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G57" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G58" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G59" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G60" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G61" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G63" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G64" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G65" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G66" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G67" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G68" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G69" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G74" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G75" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G76" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G77" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G78" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G79" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G80" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G81" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G82" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G83" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G84" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G85" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G86" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G87" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G88" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E89" s="2" t="str">
+        <f t="shared" ref="E89:E103" si="4">_xlfn.CONCAT("| ",B89," | ",C89," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="G89" s="2" t="str">
+        <f t="shared" ref="G89:G103" si="5">_xlfn.CONCAT("| ",B89," | ",C89," | ",D89," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G90" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G91" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G92" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G93" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G94" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G95" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G96" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G97" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G98" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G99" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G100" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G101" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G102" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |  |</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="G103" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |  |</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTableToMarkDownSample.xlsx
+++ b/ExcelTableToMarkDownSample.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC650DBF-F277-4145-B140-8B8616C2DA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93972A4E-3C5F-4060-9CC1-33CD35494528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve"> ---</t>
   </si>
@@ -48,16 +48,28 @@
     <t>Texto para tres columnas</t>
   </si>
   <si>
-    <t>Cálido</t>
-  </si>
-  <si>
     <t>Valor de corte</t>
   </si>
   <si>
     <t>Etiqueta</t>
   </si>
   <si>
-    <t>Cálido, 24°C+, &lt;= 1000 meters</t>
+    <t>Cálido, T&gt;=24°C, &lt;=800meter</t>
+  </si>
+  <si>
+    <t>Templado, 24°C&gt;T&gt;18°C, &lt;=1800meter</t>
+  </si>
+  <si>
+    <t>Frío, 18°C&gt;T&gt;12°C, &lt;=2800meter</t>
+  </si>
+  <si>
+    <t>Muy Frío, 12°C&gt;T&gt;6°C, &lt;=3700meter</t>
+  </si>
+  <si>
+    <t>Extremadamente Frio, 6°C&gt;T&gt;0°C, &lt;=4700meter</t>
+  </si>
+  <si>
+    <t>Nival, T&lt;0°C, &gt;4700meter</t>
   </si>
 </sst>
 </file>
@@ -418,14 +430,14 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="76" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
@@ -446,10 +458,10 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
@@ -477,85 +489,105 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>4</v>
+      <c r="B5" s="2">
+        <v>800</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| Cálido | Cálido, 24°C+, &lt;= 1000 meters |</v>
+        <v>| 800 | Cálido, T&gt;=24°C, &lt;=800meter |</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>| Cálido | Cálido, 24°C+, &lt;= 1000 meters |  |</v>
+        <v>| 800 | Cálido, T&gt;=24°C, &lt;=800meter |  |</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2">
+        <v>1800</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="str">
         <f t="shared" ref="E6:E24" si="1">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>|  |  |</v>
+        <v>| 1800 | Templado, 24°C&gt;T&gt;18°C, &lt;=1800meter |</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| 1800 | Templado, 24°C&gt;T&gt;18°C, &lt;=1800meter |  |</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2">
+        <v>2800</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |</v>
+        <v>| 2800 | Frío, 18°C&gt;T&gt;12°C, &lt;=2800meter |</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| 2800 | Frío, 18°C&gt;T&gt;12°C, &lt;=2800meter |  |</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2">
+        <v>3700</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |</v>
+        <v>| 3700 | Muy Frío, 12°C&gt;T&gt;6°C, &lt;=3700meter |</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| 3700 | Muy Frío, 12°C&gt;T&gt;6°C, &lt;=3700meter |  |</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2">
+        <v>4700</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |</v>
+        <v>| 4700 | Extremadamente Frio, 6°C&gt;T&gt;0°C, &lt;=4700meter |</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| 4700 | Extremadamente Frio, 6°C&gt;T&gt;0°C, &lt;=4700meter |  |</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2">
+        <v>99999</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |</v>
+        <v>| 99999 | Nival, T&lt;0°C, &gt;4700meter |</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| 99999 | Nival, T&lt;0°C, &gt;4700meter |  |</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">

--- a/ExcelTableToMarkDownSample.xlsx
+++ b/ExcelTableToMarkDownSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED82787F-4B01-406B-85F3-71FE0BF1B485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C7ED19-A90F-4E60-9F40-1685D1522DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t xml:space="preserve"> ---</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -48,19 +45,55 @@
     <t>Texto para tres columnas</t>
   </si>
   <si>
-    <t>Fecha</t>
+    <t>Texto para cuatro columnas</t>
   </si>
   <si>
-    <t>Activa</t>
+    <t>xxx</t>
   </si>
   <si>
-    <t>Suspendida</t>
+    <t>Campo</t>
   </si>
   <si>
-    <t>En Mantenimiento</t>
+    <t>Tipo</t>
   </si>
   <si>
-    <t>Texto para cuatro columnas</t>
+    <t>Entero corto</t>
+  </si>
+  <si>
+    <t>CNBJenks</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Natural Breaks (Jenks)</t>
+  </si>
+  <si>
+    <t>Equal Interval</t>
+  </si>
+  <si>
+    <t>Quantile</t>
+  </si>
+  <si>
+    <t>Geometrical Interval</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>CQuantile</t>
+  </si>
+  <si>
+    <t>CStdDev</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>CEqualInt</t>
+  </si>
+  <si>
+    <t>CGeomInt</t>
   </si>
 </sst>
 </file>
@@ -107,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -126,6 +159,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,14 +481,15 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="81.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" style="1" customWidth="1"/>
     <col min="7" max="9" width="74.140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
@@ -460,188 +497,194 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Fecha | Activa |</v>
+        <v>| Campo | Alias |</v>
       </c>
       <c r="H3" s="2" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Fecha | Activa | Suspendida |</v>
+        <v>| Campo | Alias | Tipo |</v>
       </c>
       <c r="I3" s="2" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Fecha | Activa | Suspendida | En Mantenimiento |</v>
+        <v>| Campo | Alias | Tipo | xxx |</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>0</v>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6" t="str">
         <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
-        <v>| ---| ---|</v>
+        <v>|---|---|</v>
       </c>
       <c r="H4" s="6" t="str">
         <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
-        <v>| ---| ---| ---|</v>
+        <v>|---|---|---|</v>
       </c>
       <c r="I4" s="6" t="str">
         <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
-        <v>| ---| ---| ---| ---|</v>
+        <v>|---|---|---|---|</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>44178</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2643</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1832</v>
-      </c>
-      <c r="E5" s="2">
-        <v>17</v>
-      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| 44178 | 2643 |</v>
+        <v>| CNBJenks | Natural Breaks (Jenks) |</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| 44178 | 2643 | 1832 |</v>
+        <f t="shared" ref="H5:H24" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
+        <v>| CNBJenks | Natural Breaks (Jenks) | Entero corto |</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" ref="I4:I67" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| 44178 | 2643 | 1832 | 17 |</v>
+        <f t="shared" ref="I5:I67" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
+        <v>| CNBJenks | Natural Breaks (Jenks) | Entero corto |  |</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>44179</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2643</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1832</v>
-      </c>
-      <c r="E6" s="2">
-        <v>17</v>
-      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="str">
-        <f t="shared" ref="G6:G24" si="1">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| 44179 | 2643 |</v>
+        <f t="shared" ref="G6:G24" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>| CEqualInt | Equal Interval |</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," |")</f>
-        <v>| 44179 | 2643 | 1832 |</v>
+        <f t="shared" si="0"/>
+        <v>| CEqualInt | Equal Interval | Entero corto |</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>| 44179 | 2643 | 1832 | 17 |</v>
+        <f t="shared" si="1"/>
+        <v>| CEqualInt | Equal Interval | Entero corto |  |</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>44180</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2643</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1832</v>
-      </c>
-      <c r="E7" s="2">
-        <v>17</v>
-      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>| 44180 | 2643 |</v>
+        <f t="shared" si="2"/>
+        <v>| CQuantile | Quantile |</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B7," | ",C7," | ",D7," |")</f>
-        <v>| 44180 | 2643 | 1832 |</v>
+        <f t="shared" si="0"/>
+        <v>| CQuantile | Quantile | Entero corto |</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>| 44180 | 2643 | 1832 | 17 |</v>
+        <f t="shared" si="1"/>
+        <v>| CQuantile | Quantile | Entero corto |  |</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |</v>
+        <f t="shared" si="2"/>
+        <v>| CGeomInt | Geometrical Interval |</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B8," | ",C8," | ",D8," |")</f>
-        <v>|  |  |  |</v>
+        <f t="shared" si="0"/>
+        <v>| CGeomInt | Geometrical Interval | Entero corto |</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |  |</v>
+        <f t="shared" si="1"/>
+        <v>| CGeomInt | Geometrical Interval | Entero corto |  |</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |</v>
+        <f t="shared" si="2"/>
+        <v>| CStdDev | Standard Deviation |</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B9," | ",C9," | ",D9," |")</f>
-        <v>|  |  |  |</v>
+        <f t="shared" si="0"/>
+        <v>| CStdDev | Standard Deviation | Entero corto |</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |  |</v>
+        <f t="shared" si="1"/>
+        <v>| CStdDev | Standard Deviation | Entero corto |  |</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -651,15 +694,15 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B10," | ",C10," | ",D10," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -670,15 +713,15 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |</v>
       </c>
       <c r="H11" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B11," | ",C11," | ",D11," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -689,15 +732,15 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |</v>
       </c>
       <c r="H12" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B12," | ",C12," | ",D12," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -708,15 +751,15 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |</v>
       </c>
       <c r="H13" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B13," | ",C13," | ",D13," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -727,15 +770,15 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B14," | ",C14," | ",D14," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -746,15 +789,15 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B15," | ",C15," | ",D15," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -765,15 +808,15 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B16," | ",C16," | ",D16," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -784,15 +827,15 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B17," | ",C17," | ",D17," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -803,15 +846,15 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B18," | ",C18," | ",D18," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -822,15 +865,15 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |</v>
       </c>
       <c r="H19" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B19," | ",C19," | ",D19," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -841,15 +884,15 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B20," | ",C20," | ",D20," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -860,15 +903,15 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B21," | ",C21," | ",D21," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -879,15 +922,15 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B22," | ",C22," | ",D22," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -898,15 +941,15 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B23," | ",C23," | ",D23," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -917,1121 +960,1121 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |</v>
       </c>
       <c r="H24" s="2" t="str">
-        <f>_xlfn.CONCAT("| ",B24," | ",C24," | ",D24," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G25" s="2" t="str">
-        <f t="shared" ref="G25:G88" si="2">_xlfn.CONCAT("| ",B25," | ",C25," |")</f>
+        <f t="shared" ref="G25:G88" si="3">_xlfn.CONCAT("| ",B25," | ",C25," |")</f>
         <v>|  |  |</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f t="shared" ref="H25:H88" si="3">_xlfn.CONCAT("| ",B25," | ",C25," | ",D25," |")</f>
+        <f t="shared" ref="H25:H88" si="4">_xlfn.CONCAT("| ",B25," | ",C25," | ",D25," |")</f>
         <v>|  |  |  |</v>
       </c>
       <c r="I25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H32" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H33" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G34" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H34" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H35" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H36" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H37" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H38" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I38" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H39" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I39" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G40" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H40" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G41" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H41" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H42" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I42" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H43" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I43" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G44" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H44" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I44" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G45" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H45" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I45" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="46" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H46" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I46" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="47" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G47" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H47" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I47" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="48" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G48" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H48" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I48" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G49" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H49" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I49" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H50" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I50" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G51" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H51" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I51" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G52" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H52" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I52" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G53" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H53" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I53" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G54" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H54" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I54" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G55" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H55" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I55" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G56" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H56" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I56" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G57" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H57" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I57" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="58" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G58" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H58" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I58" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="59" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G59" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H59" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I59" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="60" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G60" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H60" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I60" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G61" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H61" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I61" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="62" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G62" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H62" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I62" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="63" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G63" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H63" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I63" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="64" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G64" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H64" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I64" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="65" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G65" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H65" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I65" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="66" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G66" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H66" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I66" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="67" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G67" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H67" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I67" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="68" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G68" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H68" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I68" s="2" t="str">
-        <f t="shared" ref="I68:I103" si="4">_xlfn.CONCAT("| ",B68," | ",C68," | ",D68," | ",E68," |")</f>
+        <f t="shared" ref="I68:I103" si="5">_xlfn.CONCAT("| ",B68," | ",C68," | ",D68," | ",E68," |")</f>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="69" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G69" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H69" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I69" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="70" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G70" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H70" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I70" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="71" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G71" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H71" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I71" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="72" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G72" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H72" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I72" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="73" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G73" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H73" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I73" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="74" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G74" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H74" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I74" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="75" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G75" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H75" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I75" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="76" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G76" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H76" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I76" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="77" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G77" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H77" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I77" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="78" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G78" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H78" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I78" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="79" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G79" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H79" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I79" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="80" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G80" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H80" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I80" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="81" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G81" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H81" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I81" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="82" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G82" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H82" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I82" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="83" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G83" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H83" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I83" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="84" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G84" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H84" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I84" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="85" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G85" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H85" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I85" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="86" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G86" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H86" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I86" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="87" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G87" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H87" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I87" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="88" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G88" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H88" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I88" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="89" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G89" s="2" t="str">
-        <f t="shared" ref="G89:G103" si="5">_xlfn.CONCAT("| ",B89," | ",C89," |")</f>
+        <f t="shared" ref="G89:G103" si="6">_xlfn.CONCAT("| ",B89," | ",C89," |")</f>
         <v>|  |  |</v>
       </c>
       <c r="H89" s="2" t="str">
-        <f t="shared" ref="H89:H103" si="6">_xlfn.CONCAT("| ",B89," | ",C89," | ",D89," |")</f>
+        <f t="shared" ref="H89:H103" si="7">_xlfn.CONCAT("| ",B89," | ",C89," | ",D89," |")</f>
         <v>|  |  |  |</v>
       </c>
       <c r="I89" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="90" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G90" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H90" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I90" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="91" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G91" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H91" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I91" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="92" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G92" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H92" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I92" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="93" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G93" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H93" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I93" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="94" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G94" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H94" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I94" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="95" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G95" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H95" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I95" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="96" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G96" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H96" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I96" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="97" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G97" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H97" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I97" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="98" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G98" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H98" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I98" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="99" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G99" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H99" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I99" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="100" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G100" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H100" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I100" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="101" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G101" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H101" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I101" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="102" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G102" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H102" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I102" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="103" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G103" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H103" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I103" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>

--- a/ExcelTableToMarkDownSample.xlsx
+++ b/ExcelTableToMarkDownSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C7ED19-A90F-4E60-9F40-1685D1522DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454E7167-7760-44B6-817D-343256A11FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -51,49 +51,52 @@
     <t>xxx</t>
   </si>
   <si>
-    <t>Campo</t>
-  </si>
-  <si>
     <t>Tipo</t>
-  </si>
-  <si>
-    <t>Entero corto</t>
-  </si>
-  <si>
-    <t>CNBJenks</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Natural Breaks (Jenks)</t>
-  </si>
-  <si>
-    <t>Equal Interval</t>
-  </si>
-  <si>
-    <t>Quantile</t>
-  </si>
-  <si>
-    <t>Geometrical Interval</t>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
-  </si>
-  <si>
-    <t>CQuantile</t>
-  </si>
-  <si>
-    <t>CStdDev</t>
   </si>
   <si>
     <t>---</t>
   </si>
   <si>
-    <t>CEqualInt</t>
+    <t>Shapefile</t>
   </si>
   <si>
-    <t>CGeomInt</t>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Departamentos.shp</t>
+  </si>
+  <si>
+    <t>Municipios.shp</t>
+  </si>
+  <si>
+    <t>Estaciones.shp</t>
+  </si>
+  <si>
+    <t>Precipitacion.shp</t>
+  </si>
+  <si>
+    <t>Evaporacion.shp</t>
+  </si>
+  <si>
+    <t>Temperatura.shp</t>
+  </si>
+  <si>
+    <t>Capa de Departamentos de Colombia - Suramérica. Construída a partir de la capa IGAC de Municipios de Colombia - Suramérica.</t>
+  </si>
+  <si>
+    <t>Capa IGAC de Municipios de Colombia - Suramérica. Más información en Introducción a pandas - Representación estadística de Municipios de Colombia</t>
+  </si>
+  <si>
+    <t>Estaciones hidrometeorológicas del IDEAM - Colombia localizadas sobre varios Departamentos de la zona central del país. Más información en la actividad Catálogo nacional de estaciones hidrometeorológicas del IDEAM - Colombia, descarga y análisis usando Python.</t>
+  </si>
+  <si>
+    <t>Estaciones con estadísticos mensuales multianuales de _Precipitación Mensual Total_.</t>
+  </si>
+  <si>
+    <t>Estaciones con estadísticos mensuales multianuales de _Evaporación Mensual Total_.</t>
+  </si>
+  <si>
+    <t>Estaciones con estadísticos mensuales multianuales de _Temperatura del Aire Mensual Media_.</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H9"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -511,42 +514,42 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Campo | Alias |</v>
+        <v>| Shapefile | Descripción |</v>
       </c>
       <c r="H3" s="2" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Campo | Alias | Tipo |</v>
+        <v>| Shapefile | Descripción | Tipo |</v>
       </c>
       <c r="I3" s="2" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Campo | Alias | Tipo | xxx |</v>
+        <v>| Shapefile | Descripción | Tipo | xxx |</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6" t="str">
@@ -562,148 +565,142 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| CNBJenks | Natural Breaks (Jenks) |</v>
+        <v>| Departamentos.shp | Capa de Departamentos de Colombia - Suramérica. Construída a partir de la capa IGAC de Municipios de Colombia - Suramérica. |</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" ref="H5:H24" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| CNBJenks | Natural Breaks (Jenks) | Entero corto |</v>
+        <v>| Departamentos.shp | Capa de Departamentos de Colombia - Suramérica. Construída a partir de la capa IGAC de Municipios de Colombia - Suramérica. |  |</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" ref="I5:I67" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| CNBJenks | Natural Breaks (Jenks) | Entero corto |  |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>| Departamentos.shp | Capa de Departamentos de Colombia - Suramérica. Construída a partir de la capa IGAC de Municipios de Colombia - Suramérica. |  |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="str">
         <f t="shared" ref="G6:G24" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| CEqualInt | Equal Interval |</v>
+        <v>| Municipios.shp | Capa IGAC de Municipios de Colombia - Suramérica. Más información en Introducción a pandas - Representación estadística de Municipios de Colombia |</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>| CEqualInt | Equal Interval | Entero corto |</v>
+        <v>| Municipios.shp | Capa IGAC de Municipios de Colombia - Suramérica. Más información en Introducción a pandas - Representación estadística de Municipios de Colombia |  |</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>| CEqualInt | Equal Interval | Entero corto |  |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>| Municipios.shp | Capa IGAC de Municipios de Colombia - Suramérica. Más información en Introducción a pandas - Representación estadística de Municipios de Colombia |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="57" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>| CQuantile | Quantile |</v>
+        <v>| Estaciones.shp | Estaciones hidrometeorológicas del IDEAM - Colombia localizadas sobre varios Departamentos de la zona central del país. Más información en la actividad Catálogo nacional de estaciones hidrometeorológicas del IDEAM - Colombia, descarga y análisis usando Python. |</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>| CQuantile | Quantile | Entero corto |</v>
+        <v>| Estaciones.shp | Estaciones hidrometeorológicas del IDEAM - Colombia localizadas sobre varios Departamentos de la zona central del país. Más información en la actividad Catálogo nacional de estaciones hidrometeorológicas del IDEAM - Colombia, descarga y análisis usando Python. |  |</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>| CQuantile | Quantile | Entero corto |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>| Estaciones.shp | Estaciones hidrometeorológicas del IDEAM - Colombia localizadas sobre varios Departamentos de la zona central del país. Más información en la actividad Catálogo nacional de estaciones hidrometeorológicas del IDEAM - Colombia, descarga y análisis usando Python. |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>| CGeomInt | Geometrical Interval |</v>
+        <v>| Precipitacion.shp | Estaciones con estadísticos mensuales multianuales de _Precipitación Mensual Total_. |</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>| CGeomInt | Geometrical Interval | Entero corto |</v>
+        <v>| Precipitacion.shp | Estaciones con estadísticos mensuales multianuales de _Precipitación Mensual Total_. |  |</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>| CGeomInt | Geometrical Interval | Entero corto |  |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>| Precipitacion.shp | Estaciones con estadísticos mensuales multianuales de _Precipitación Mensual Total_. |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>| CStdDev | Standard Deviation |</v>
+        <v>| Evaporacion.shp | Estaciones con estadísticos mensuales multianuales de _Evaporación Mensual Total_. |</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>| CStdDev | Standard Deviation | Entero corto |</v>
+        <v>| Evaporacion.shp | Estaciones con estadísticos mensuales multianuales de _Evaporación Mensual Total_. |  |</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>| CStdDev | Standard Deviation | Entero corto |  |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+        <v>| Evaporacion.shp | Estaciones con estadísticos mensuales multianuales de _Evaporación Mensual Total_. |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>|  |  |</v>
+        <v>| Temperatura.shp | Estaciones con estadísticos mensuales multianuales de _Temperatura del Aire Mensual Media_. |</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| Temperatura.shp | Estaciones con estadísticos mensuales multianuales de _Temperatura del Aire Mensual Media_. |  |</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
+        <v>| Temperatura.shp | Estaciones con estadísticos mensuales multianuales de _Temperatura del Aire Mensual Media_. |  |  |</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">

--- a/ExcelTableToMarkDownSample.xlsx
+++ b/ExcelTableToMarkDownSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA63876D-DFF2-466B-9250-C93B954AE547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD76384-47D4-42D2-BAAF-6C56EB53B71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -64,196 +64,106 @@
     <t>Explicación</t>
   </si>
   <si>
-    <t>​​​​​​​import arcpy</t>
-  </si>
-  <si>
-    <t>Importación de la librería acrpy de ArcGIS Desktop</t>
-  </si>
-  <si>
-    <t>def CapaPropiedades(i):</t>
-  </si>
-  <si>
-    <t>Función que permite consultar las propiedades generales de una capa geográfica (nombre, geometría) los atributos disponibles y sus tipos. En los parámetros, i corresponde al nombre de la capa</t>
-  </si>
-  <si>
-    <t>TotalEntidades = arcpy.GetCount_management(i)</t>
-  </si>
-  <si>
-    <t>Total de entidades encontradas en la capa</t>
-  </si>
-  <si>
-    <t>DescGeometria = arcpy.Describe(i)</t>
-  </si>
-  <si>
-    <t>TipoGeometria = DescGeometria.shapeType</t>
-  </si>
-  <si>
-    <t>Describe(i): Descripción general de la capa.</t>
-  </si>
-  <si>
-    <t>shapeType permite conocer el tipo de geometría nativa de la capa (puntos, líneas o polígonos)</t>
-  </si>
-  <si>
-    <t>Campos = arcpy.ListFields(i)</t>
-  </si>
-  <si>
-    <t>Lista los campos disponibles en la capa y los almacena en la variable Campos. Las propiedades más comunes son el nombre (name) y tipo (type)</t>
-  </si>
-  <si>
-    <t>arcpy.env.workspace = r'C:\HPSD\HPSD0007\Datos'</t>
-  </si>
-  <si>
-    <t>Definición del espacio de trabajo</t>
-  </si>
-  <si>
-    <t>FeatureList = arcpy.ListFeatureClasses()</t>
-  </si>
-  <si>
-    <t>Lista las capas disponibles en el espacio de trabajo y las almacena en la variable FeatureList</t>
-  </si>
-  <si>
-    <t>Cursor = arcpy.SearchCursor(FeatureList[NumCapaEntrada-1])</t>
-  </si>
-  <si>
-    <t>Mediante cursores es posible almacenar en una variable toda la información de la tabla de atributos de una capa</t>
-  </si>
-  <si>
-    <t>Fila.getValue(CampoEvaluar)</t>
-  </si>
-  <si>
-    <t>Permite obtener el valor de un campo específico desde el registro activo</t>
-  </si>
-  <si>
-    <t>plt.bar(ListaCampoRotulo, ListaCampoEvaluar, color = 'darkGray')</t>
-  </si>
-  <si>
-    <t>Graficar mediante barras de color gris oscuro a partir de dos campos numéricos</t>
-  </si>
-  <si>
-    <t>except NameError as e:</t>
-  </si>
-  <si>
-    <t>    print('  &gt;&gt;&gt; Error: Dato ingresado inválido...')</t>
-  </si>
-  <si>
-    <t>except ValueError as e:</t>
-  </si>
-  <si>
-    <t>    print('  &gt;&gt;&gt; Error: Error en código fuente o en datos...')</t>
-  </si>
-  <si>
-    <t>except SyntaxError as e:</t>
-  </si>
-  <si>
-    <t>    print('  &gt;&gt;&gt; Error: Debe ingresar un número de capa...')</t>
-  </si>
-  <si>
-    <t>except IndexError as e:</t>
-  </si>
-  <si>
-    <t>    print('  &gt;&gt;&gt; Error: Capa o dato  no existe...')</t>
-  </si>
-  <si>
-    <t>except RuntimeError as e:</t>
-  </si>
-  <si>
-    <t>    print('  &gt;&gt;&gt; Error: Atributo no existe...')</t>
-  </si>
-  <si>
-    <t>Controles de excepción de error implementados para controlar:</t>
-  </si>
-  <si>
-    <t>Número de capa ingresado fuera de rango.</t>
-  </si>
-  <si>
-    <t>Campos ingresados no existentes.</t>
-  </si>
-  <si>
-    <t>Valores para filtro fuera de rango.</t>
-  </si>
-  <si>
-    <t>Errores de sintaxis.</t>
-  </si>
-  <si>
-    <t>Graficar mediante barras de color gris oscuro a partir de dos campos numéricos.</t>
-  </si>
-  <si>
-    <t>Permite obtener el valor de un campo específico desde el registro activo.</t>
-  </si>
-  <si>
-    <t>Mediante cursores es posible almacenar en una variable toda la información de la tabla de atributos de una capa.</t>
-  </si>
-  <si>
-    <t>Importación de la librería acrpy de ArcGIS.</t>
-  </si>
-  <si>
-    <t>Función que permite consultar las propiedades generales de una capa geográfica (nombre, geometría) los atributos disponibles y sus tipos. En los parámetros, i corresponde al nombre de la capa.</t>
-  </si>
-  <si>
-    <t>Total de entidades encontradas en la capa.</t>
-  </si>
-  <si>
-    <t>shapeType permite conocer el tipo de geometría nativa de la capa (puntos, líneas o polígonos).</t>
-  </si>
-  <si>
-    <t>Lista los campos disponibles en la capa y los almacena en la variable Campos. Las propiedades más comunes son el nombre (name) y tipo (type).</t>
-  </si>
-  <si>
-    <t>Definición del espacio de trabajo.</t>
-  </si>
-  <si>
-    <t>Lista las capas disponibles en el espacio de trabajo y las almacena en la variable FeatureList.</t>
-  </si>
-  <si>
-    <t>Excepción para error en sintaxis.</t>
-  </si>
-  <si>
-    <t>Excepción para error en nombre de variable o variable no encontrada.</t>
-  </si>
-  <si>
-    <t>Excepción para error en índices o valores fuera de rango.</t>
-  </si>
-  <si>
-    <t>Excepción para error en valor definido en una variable al ejecutar una operación o cuando una función recibe el valor como un argumento.</t>
-  </si>
-  <si>
-    <t>Excepción para error general de ejecución cuando no puede ser evaluada por otro tipo de excepcion.</t>
-  </si>
-  <si>
-    <t>totalEntidades = arcpy.GetCount_management(i)</t>
-  </si>
-  <si>
-    <t>descGeometria = arcpy.Describe(i)</t>
-  </si>
-  <si>
-    <t>tipoGeometria = DescGeometria.shapeType</t>
-  </si>
-  <si>
-    <t>campos = arcpy.ListFields(i)</t>
-  </si>
-  <si>
-    <t>arcpy.env.workspace = absolutePath+'/Datos'</t>
-  </si>
-  <si>
-    <t>absolutePath = r'D:/R.GISPython/GISListLayerField'</t>
-  </si>
-  <si>
-    <t>Definición de ruta absoluta para compaibilidad de ejecución en ArcGIS Pro Notebook y Jupyter. Usar `r'.'` para retornar a ruta relativa.</t>
-  </si>
-  <si>
-    <t>featureList = arcpy.ListFeatureClasses()</t>
-  </si>
-  <si>
-    <t>cursor = arcpy.SearchCursor(FeatureList[NumCapaEntrada-1])</t>
-  </si>
-  <si>
-    <t>fila.getValue(CampoEvaluar)</t>
-  </si>
-  <si>
-    <t>plt.bar(listaCampoRotulo, listaCampoEvaluar, color = 'darkGray')</t>
-  </si>
-  <si>
-    <t>​​​​​​import arcpy</t>
+    <t>from qgis.core import *</t>
+  </si>
+  <si>
+    <t>import qgis.utils</t>
+  </si>
+  <si>
+    <t>from qgis.core import QgsProject</t>
+  </si>
+  <si>
+    <t>Creación de lista con las capas disponibles en el proyecto actual. No incluye las extensiones de las capas. El For aninado dentro de los corchetes es un tipo de sintaxis compacta utilizada por Python.</t>
+  </si>
+  <si>
+    <t>for layer in QgsProject.instance().mapLayers().values():</t>
+  </si>
+  <si>
+    <t>for principal para la visualización de capas, sus atributos y tipos.</t>
+  </si>
+  <si>
+    <t>Conteo de entidades dentro de la capa actual.</t>
+  </si>
+  <si>
+    <t>Importación de paquete de utilidades generales.</t>
+  </si>
+  <si>
+    <t>Importación del núcleo de QGIS.</t>
+  </si>
+  <si>
+    <t>Importación de paquete para administración del proyecto en el GUI de la aplicación.</t>
+  </si>
+  <si>
+    <t>featureList = [layer.name() for layer in QgsProject.instance().mapLayers().values()]</t>
+  </si>
+  <si>
+    <t>totalEntidades = layer.featureCount()</t>
+  </si>
+  <si>
+    <t>if layer.wkbType() == QgsWkbTypes.Point:</t>
+  </si>
+  <si>
+    <t>Evaluación de geometría de capa para tipo punto.</t>
+  </si>
+  <si>
+    <t>elif layer.wkbType() == QgsWkbTypes.LineString:</t>
+  </si>
+  <si>
+    <t>elif layer.wkbType() == QgsWkbTypes.Polygon:</t>
+  </si>
+  <si>
+    <t>elif layer.wkbType() == QgsWkbTypes.MultiPolygon:</t>
+  </si>
+  <si>
+    <t>Evaluación de geometría de capa para tipo línea.</t>
+  </si>
+  <si>
+    <t>Evaluación de geometría de capa para tipo polígono.</t>
+  </si>
+  <si>
+    <t>Evaluación de geometría de capa para tipo multi-polígono.</t>
+  </si>
+  <si>
+    <t>for field in layer.fields():</t>
+  </si>
+  <si>
+    <t>for para evaluar cada atributo en cada registro de la capa actual.</t>
+  </si>
+  <si>
+    <t>field.name()</t>
+  </si>
+  <si>
+    <t>Nombre del campo de atributo.</t>
+  </si>
+  <si>
+    <t>field.typeName()</t>
+  </si>
+  <si>
+    <t>Tipo de atributo.</t>
+  </si>
+  <si>
+    <t>Conteo de entidades en la capa cargada en el mapa o en memoria.</t>
+  </si>
+  <si>
+    <t>Cargar una capa al mapa actual.</t>
+  </si>
+  <si>
+    <t>Cargar una capa solo en memoria.</t>
+  </si>
+  <si>
+    <t>Estilo de ploteo de gráficas en la versión 3.1.1+ de matplotlib.</t>
+  </si>
+  <si>
+    <t>plt.style.use('fast')</t>
+  </si>
+  <si>
+    <t>fCount = layerInput.featureCount()</t>
+  </si>
+  <si>
+    <t>#layerInput = iface.addVectorLayer(gisFileInput,'','ogr')</t>
+  </si>
+  <si>
+    <t>layerInput = QgsVectorLayer(gisFileInput,'','ogr')</t>
   </si>
 </sst>
 </file>
@@ -667,7 +577,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -755,393 +665,393 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| ​​​​​​import arcpy | Importación de la librería acrpy de ArcGIS. |</v>
+        <v>| from qgis.core import * | Importación del núcleo de QGIS. |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H24" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| ​​​​​​import arcpy | Importación de la librería acrpy de ArcGIS. |  |</v>
+        <v>| from qgis.core import * | Importación del núcleo de QGIS. |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I67" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| ​​​​​​import arcpy | Importación de la librería acrpy de ArcGIS. |  |  |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>| from qgis.core import * | Importación del núcleo de QGIS. |  |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G24" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| def CapaPropiedades(i): | Función que permite consultar las propiedades generales de una capa geográfica (nombre, geometría) los atributos disponibles y sus tipos. En los parámetros, i corresponde al nombre de la capa. |</v>
+        <v>| import qgis.utils | Importación de paquete de utilidades generales. |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| def CapaPropiedades(i): | Función que permite consultar las propiedades generales de una capa geográfica (nombre, geometría) los atributos disponibles y sus tipos. En los parámetros, i corresponde al nombre de la capa. |  |</v>
+        <v>| import qgis.utils | Importación de paquete de utilidades generales. |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| def CapaPropiedades(i): | Función que permite consultar las propiedades generales de una capa geográfica (nombre, geometría) los atributos disponibles y sus tipos. En los parámetros, i corresponde al nombre de la capa. |  |  |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>| import qgis.utils | Importación de paquete de utilidades generales. |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| totalEntidades = arcpy.GetCount_management(i) | Total de entidades encontradas en la capa. |</v>
+        <v>| from qgis.core import QgsProject | Importación de paquete para administración del proyecto en el GUI de la aplicación. |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| totalEntidades = arcpy.GetCount_management(i) | Total de entidades encontradas en la capa. |  |</v>
+        <v>| from qgis.core import QgsProject | Importación de paquete para administración del proyecto en el GUI de la aplicación. |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| totalEntidades = arcpy.GetCount_management(i) | Total de entidades encontradas en la capa. |  |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>| from qgis.core import QgsProject | Importación de paquete para administración del proyecto en el GUI de la aplicación. |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| descGeometria = arcpy.Describe(i) | Describe(i): Descripción general de la capa. |</v>
+        <v>| featureList = [layer.name() for layer in QgsProject.instance().mapLayers().values()] | Creación de lista con las capas disponibles en el proyecto actual. No incluye las extensiones de las capas. El For aninado dentro de los corchetes es un tipo de sintaxis compacta utilizada por Python. |</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| descGeometria = arcpy.Describe(i) | Describe(i): Descripción general de la capa. |  |</v>
+        <v>| featureList = [layer.name() for layer in QgsProject.instance().mapLayers().values()] | Creación de lista con las capas disponibles en el proyecto actual. No incluye las extensiones de las capas. El For aninado dentro de los corchetes es un tipo de sintaxis compacta utilizada por Python. |  |</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| descGeometria = arcpy.Describe(i) | Describe(i): Descripción general de la capa. |  |  |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>| featureList = [layer.name() for layer in QgsProject.instance().mapLayers().values()] | Creación de lista con las capas disponibles en el proyecto actual. No incluye las extensiones de las capas. El For aninado dentro de los corchetes es un tipo de sintaxis compacta utilizada por Python. |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| tipoGeometria = DescGeometria.shapeType | shapeType permite conocer el tipo de geometría nativa de la capa (puntos, líneas o polígonos). |</v>
+        <v>| for layer in QgsProject.instance().mapLayers().values(): | for principal para la visualización de capas, sus atributos y tipos. |</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| tipoGeometria = DescGeometria.shapeType | shapeType permite conocer el tipo de geometría nativa de la capa (puntos, líneas o polígonos). |  |</v>
+        <v>| for layer in QgsProject.instance().mapLayers().values(): | for principal para la visualización de capas, sus atributos y tipos. |  |</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| tipoGeometria = DescGeometria.shapeType | shapeType permite conocer el tipo de geometría nativa de la capa (puntos, líneas o polígonos). |  |  |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>| for layer in QgsProject.instance().mapLayers().values(): | for principal para la visualización de capas, sus atributos y tipos. |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| campos = arcpy.ListFields(i) | Lista los campos disponibles en la capa y los almacena en la variable Campos. Las propiedades más comunes son el nombre (name) y tipo (type). |</v>
+        <v>| totalEntidades = layer.featureCount() | Conteo de entidades dentro de la capa actual. |</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| campos = arcpy.ListFields(i) | Lista los campos disponibles en la capa y los almacena en la variable Campos. Las propiedades más comunes son el nombre (name) y tipo (type). |  |</v>
+        <v>| totalEntidades = layer.featureCount() | Conteo de entidades dentro de la capa actual. |  |</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| campos = arcpy.ListFields(i) | Lista los campos disponibles en la capa y los almacena en la variable Campos. Las propiedades más comunes son el nombre (name) y tipo (type). |  |  |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>| totalEntidades = layer.featureCount() | Conteo de entidades dentro de la capa actual. |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| absolutePath = r'D:/R.GISPython/GISListLayerField' | Definición de ruta absoluta para compaibilidad de ejecución en ArcGIS Pro Notebook y Jupyter. Usar `r'.'` para retornar a ruta relativa. |</v>
+        <v>| if layer.wkbType() == QgsWkbTypes.Point: | Evaluación de geometría de capa para tipo punto. |</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| absolutePath = r'D:/R.GISPython/GISListLayerField' | Definición de ruta absoluta para compaibilidad de ejecución en ArcGIS Pro Notebook y Jupyter. Usar `r'.'` para retornar a ruta relativa. |  |</v>
+        <v>| if layer.wkbType() == QgsWkbTypes.Point: | Evaluación de geometría de capa para tipo punto. |  |</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| absolutePath = r'D:/R.GISPython/GISListLayerField' | Definición de ruta absoluta para compaibilidad de ejecución en ArcGIS Pro Notebook y Jupyter. Usar `r'.'` para retornar a ruta relativa. |  |  |</v>
+        <v>| if layer.wkbType() == QgsWkbTypes.Point: | Evaluación de geometría de capa para tipo punto. |  |  |</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| arcpy.env.workspace = absolutePath+'/Datos' | Definición del espacio de trabajo. |</v>
+        <v>| elif layer.wkbType() == QgsWkbTypes.LineString: | Evaluación de geometría de capa para tipo línea. |</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| arcpy.env.workspace = absolutePath+'/Datos' | Definición del espacio de trabajo. |  |</v>
+        <v>| elif layer.wkbType() == QgsWkbTypes.LineString: | Evaluación de geometría de capa para tipo línea. |  |</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| arcpy.env.workspace = absolutePath+'/Datos' | Definición del espacio de trabajo. |  |  |</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>| elif layer.wkbType() == QgsWkbTypes.LineString: | Evaluación de geometría de capa para tipo línea. |  |  |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| featureList = arcpy.ListFeatureClasses() | Lista las capas disponibles en el espacio de trabajo y las almacena en la variable FeatureList. |</v>
+        <v>| elif layer.wkbType() == QgsWkbTypes.Polygon: | Evaluación de geometría de capa para tipo polígono. |</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| featureList = arcpy.ListFeatureClasses() | Lista las capas disponibles en el espacio de trabajo y las almacena en la variable FeatureList. |  |</v>
+        <v>| elif layer.wkbType() == QgsWkbTypes.Polygon: | Evaluación de geometría de capa para tipo polígono. |  |</v>
       </c>
       <c r="I13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| featureList = arcpy.ListFeatureClasses() | Lista las capas disponibles en el espacio de trabajo y las almacena en la variable FeatureList. |  |  |</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>| elif layer.wkbType() == QgsWkbTypes.Polygon: | Evaluación de geometría de capa para tipo polígono. |  |  |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| cursor = arcpy.SearchCursor(FeatureList[NumCapaEntrada-1]) | Mediante cursores es posible almacenar en una variable toda la información de la tabla de atributos de una capa. |</v>
+        <v>| elif layer.wkbType() == QgsWkbTypes.MultiPolygon: | Evaluación de geometría de capa para tipo multi-polígono. |</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| cursor = arcpy.SearchCursor(FeatureList[NumCapaEntrada-1]) | Mediante cursores es posible almacenar en una variable toda la información de la tabla de atributos de una capa. |  |</v>
+        <v>| elif layer.wkbType() == QgsWkbTypes.MultiPolygon: | Evaluación de geometría de capa para tipo multi-polígono. |  |</v>
       </c>
       <c r="I14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| cursor = arcpy.SearchCursor(FeatureList[NumCapaEntrada-1]) | Mediante cursores es posible almacenar en una variable toda la información de la tabla de atributos de una capa. |  |  |</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>| elif layer.wkbType() == QgsWkbTypes.MultiPolygon: | Evaluación de geometría de capa para tipo multi-polígono. |  |  |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| fila.getValue(CampoEvaluar) | Permite obtener el valor de un campo específico desde el registro activo. |</v>
+        <v>| for field in layer.fields(): | for para evaluar cada atributo en cada registro de la capa actual. |</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| fila.getValue(CampoEvaluar) | Permite obtener el valor de un campo específico desde el registro activo. |  |</v>
+        <v>| for field in layer.fields(): | for para evaluar cada atributo en cada registro de la capa actual. |  |</v>
       </c>
       <c r="I15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| fila.getValue(CampoEvaluar) | Permite obtener el valor de un campo específico desde el registro activo. |  |  |</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>| for field in layer.fields(): | for para evaluar cada atributo en cada registro de la capa actual. |  |  |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| plt.bar(listaCampoRotulo, listaCampoEvaluar, color = 'darkGray') | Graficar mediante barras de color gris oscuro a partir de dos campos numéricos. |</v>
+        <v>| field.name() | Nombre del campo de atributo. |</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| plt.bar(listaCampoRotulo, listaCampoEvaluar, color = 'darkGray') | Graficar mediante barras de color gris oscuro a partir de dos campos numéricos. |  |</v>
+        <v>| field.name() | Nombre del campo de atributo. |  |</v>
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| plt.bar(listaCampoRotulo, listaCampoEvaluar, color = 'darkGray') | Graficar mediante barras de color gris oscuro a partir de dos campos numéricos. |  |  |</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>| field.name() | Nombre del campo de atributo. |  |  |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| except NameError as e: | Excepción para error en nombre de variable o variable no encontrada. |</v>
+        <v>| field.typeName() | Tipo de atributo. |</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| except NameError as e: | Excepción para error en nombre de variable o variable no encontrada. |  |</v>
+        <v>| field.typeName() | Tipo de atributo. |  |</v>
       </c>
       <c r="I17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| except NameError as e: | Excepción para error en nombre de variable o variable no encontrada. |  |  |</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>| field.typeName() | Tipo de atributo. |  |  |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| except ValueError as e: | Excepción para error en valor definido en una variable al ejecutar una operación o cuando una función recibe el valor como un argumento. |</v>
+        <v>| #layerInput = iface.addVectorLayer(gisFileInput,'','ogr') | Cargar una capa al mapa actual. |</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| except ValueError as e: | Excepción para error en valor definido en una variable al ejecutar una operación o cuando una función recibe el valor como un argumento. |  |</v>
+        <v>| #layerInput = iface.addVectorLayer(gisFileInput,'','ogr') | Cargar una capa al mapa actual. |  |</v>
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| except ValueError as e: | Excepción para error en valor definido en una variable al ejecutar una operación o cuando una función recibe el valor como un argumento. |  |  |</v>
+        <v>| #layerInput = iface.addVectorLayer(gisFileInput,'','ogr') | Cargar una capa al mapa actual. |  |  |</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| except SyntaxError as e: | Excepción para error en sintaxis. |</v>
+        <v>| layerInput = QgsVectorLayer(gisFileInput,'','ogr') | Cargar una capa solo en memoria. |</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| except SyntaxError as e: | Excepción para error en sintaxis. |  |</v>
+        <v>| layerInput = QgsVectorLayer(gisFileInput,'','ogr') | Cargar una capa solo en memoria. |  |</v>
       </c>
       <c r="I19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| except SyntaxError as e: | Excepción para error en sintaxis. |  |  |</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>| layerInput = QgsVectorLayer(gisFileInput,'','ogr') | Cargar una capa solo en memoria. |  |  |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| except IndexError as e: | Excepción para error en índices o valores fuera de rango. |</v>
+        <v>| fCount = layerInput.featureCount() | Conteo de entidades en la capa cargada en el mapa o en memoria. |</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| except IndexError as e: | Excepción para error en índices o valores fuera de rango. |  |</v>
+        <v>| fCount = layerInput.featureCount() | Conteo de entidades en la capa cargada en el mapa o en memoria. |  |</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| except IndexError as e: | Excepción para error en índices o valores fuera de rango. |  |  |</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+        <v>| fCount = layerInput.featureCount() | Conteo de entidades en la capa cargada en el mapa o en memoria. |  |  |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| except RuntimeError as e: | Excepción para error general de ejecución cuando no puede ser evaluada por otro tipo de excepcion. |</v>
+        <v>| plt.style.use('fast') | Estilo de ploteo de gráficas en la versión 3.1.1+ de matplotlib. |</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| except RuntimeError as e: | Excepción para error general de ejecución cuando no puede ser evaluada por otro tipo de excepcion. |  |</v>
+        <v>| plt.style.use('fast') | Estilo de ploteo de gráficas en la versión 3.1.1+ de matplotlib. |  |</v>
       </c>
       <c r="I21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| except RuntimeError as e: | Excepción para error general de ejecución cuando no puede ser evaluada por otro tipo de excepcion. |  |  |</v>
+        <v>| plt.style.use('fast') | Estilo de ploteo de gráficas en la versión 3.1.1+ de matplotlib. |  |  |</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -2710,15 +2620,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E841DB0-A52A-4B8E-BF88-9BC07F3D477C}">
-  <dimension ref="B2:C38"/>
+  <dimension ref="B2:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B38"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="B3:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="158.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2735,47 +2646,47 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -2791,20 +2702,20 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -2823,92 +2734,47 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
